--- a/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H2">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I2">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J2">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N2">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O2">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P2">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q2">
-        <v>22.73065876392135</v>
+        <v>34.74925650439666</v>
       </c>
       <c r="R2">
-        <v>22.73065876392135</v>
+        <v>312.74330853957</v>
       </c>
       <c r="S2">
-        <v>0.01387265005429614</v>
+        <v>0.01752327066631137</v>
       </c>
       <c r="T2">
-        <v>0.01387265005429614</v>
+        <v>0.02195339387957023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H3">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I3">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J3">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N3">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P3">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q3">
-        <v>26.12980549802422</v>
+        <v>42.874862792534</v>
       </c>
       <c r="R3">
-        <v>26.12980549802422</v>
+        <v>385.8737651328059</v>
       </c>
       <c r="S3">
-        <v>0.01594716859839828</v>
+        <v>0.02162083166871431</v>
       </c>
       <c r="T3">
-        <v>0.01594716859839828</v>
+        <v>0.02708687451479537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H4">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I4">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J4">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N4">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O4">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P4">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q4">
-        <v>11.10847079303377</v>
+        <v>23.156040706044</v>
       </c>
       <c r="R4">
-        <v>11.10847079303377</v>
+        <v>208.404366354396</v>
       </c>
       <c r="S4">
-        <v>0.006779562772493179</v>
+        <v>0.0116770719626992</v>
       </c>
       <c r="T4">
-        <v>0.006779562772493179</v>
+        <v>0.01462919594400029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H5">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I5">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J5">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N5">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O5">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P5">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q5">
-        <v>16.02024968827573</v>
+        <v>25.47722223035467</v>
       </c>
       <c r="R5">
-        <v>16.02024968827573</v>
+        <v>229.295000073192</v>
       </c>
       <c r="S5">
-        <v>0.009777249309670067</v>
+        <v>0.01284759174377683</v>
       </c>
       <c r="T5">
-        <v>0.009777249309670067</v>
+        <v>0.01609563918323121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H6">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I6">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J6">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N6">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O6">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P6">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q6">
-        <v>12.63900884645944</v>
+        <v>19.187603302791</v>
       </c>
       <c r="R6">
-        <v>12.63900884645944</v>
+        <v>115.125619816746</v>
       </c>
       <c r="S6">
-        <v>0.007713658833257543</v>
+        <v>0.009675877988067894</v>
       </c>
       <c r="T6">
-        <v>0.007713658833257543</v>
+        <v>0.008081381786452837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H7">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I7">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J7">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N7">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O7">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P7">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q7">
-        <v>84.71317297881285</v>
+        <v>92.54135584603833</v>
       </c>
       <c r="R7">
-        <v>84.71317297881285</v>
+        <v>832.8722026143449</v>
       </c>
       <c r="S7">
-        <v>0.05170093026909654</v>
+        <v>0.04666653014899439</v>
       </c>
       <c r="T7">
-        <v>0.05170093026909654</v>
+        <v>0.05846446915434004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H8">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I8">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J8">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N8">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P8">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q8">
-        <v>97.38119585738723</v>
+        <v>114.180800790139</v>
       </c>
       <c r="R8">
-        <v>97.38119585738723</v>
+        <v>1027.627207111251</v>
       </c>
       <c r="S8">
-        <v>0.05943229653082656</v>
+        <v>0.0575788168845751</v>
       </c>
       <c r="T8">
-        <v>0.05943229653082656</v>
+        <v>0.07213553167428229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H9">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I9">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J9">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N9">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O9">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P9">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q9">
-        <v>41.3993196411004</v>
+        <v>61.667259058974</v>
       </c>
       <c r="R9">
-        <v>41.3993196411004</v>
+        <v>555.0053315307659</v>
       </c>
       <c r="S9">
-        <v>0.0252662397439403</v>
+        <v>0.03109741561242379</v>
       </c>
       <c r="T9">
-        <v>0.0252662397439403</v>
+        <v>0.03895926888173452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H10">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I10">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J10">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N10">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O10">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P10">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q10">
-        <v>59.70465691741136</v>
+        <v>67.84883837988133</v>
       </c>
       <c r="R10">
-        <v>59.70465691741136</v>
+        <v>610.639545418932</v>
       </c>
       <c r="S10">
-        <v>0.03643809097788647</v>
+        <v>0.03421464741770937</v>
       </c>
       <c r="T10">
-        <v>0.03643809097788647</v>
+        <v>0.04286457965039844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.98728589742456</v>
+        <v>3.197813</v>
       </c>
       <c r="H11">
-        <v>2.98728589742456</v>
+        <v>9.593439</v>
       </c>
       <c r="I11">
-        <v>0.2015850092268656</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J11">
-        <v>0.2015850092268656</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N11">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O11">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P11">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q11">
-        <v>47.10336615453883</v>
+        <v>51.0988436501235</v>
       </c>
       <c r="R11">
-        <v>47.10336615453883</v>
+        <v>306.593061900741</v>
       </c>
       <c r="S11">
-        <v>0.02874745170511569</v>
+        <v>0.02576800076005503</v>
       </c>
       <c r="T11">
-        <v>0.02874745170511569</v>
+        <v>0.02152166989625235</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H12">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I12">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J12">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N12">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O12">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P12">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q12">
-        <v>34.11205527889943</v>
+        <v>46.93978989398</v>
       </c>
       <c r="R12">
-        <v>34.11205527889943</v>
+        <v>422.4581090458199</v>
       </c>
       <c r="S12">
-        <v>0.02081878094391574</v>
+        <v>0.02367068323398306</v>
       </c>
       <c r="T12">
-        <v>0.02081878094391574</v>
+        <v>0.02965495667616458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H13">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I13">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J13">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N13">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O13">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P13">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q13">
-        <v>39.21317806196848</v>
+        <v>57.915974431284</v>
       </c>
       <c r="R13">
-        <v>39.21317806196848</v>
+        <v>521.243769881556</v>
       </c>
       <c r="S13">
-        <v>0.02393202513047823</v>
+        <v>0.02920572691200316</v>
       </c>
       <c r="T13">
-        <v>0.02393202513047823</v>
+        <v>0.03658933532716664</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H14">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I14">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J14">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N14">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O14">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P14">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q14">
-        <v>16.67055819594015</v>
+        <v>31.279509113544</v>
       </c>
       <c r="R14">
-        <v>16.67055819594015</v>
+        <v>281.515582021896</v>
       </c>
       <c r="S14">
-        <v>0.01017413628280431</v>
+        <v>0.01577355487984711</v>
       </c>
       <c r="T14">
-        <v>0.01017413628280431</v>
+        <v>0.01976132593922849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H15">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I15">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J15">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N15">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O15">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P15">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q15">
-        <v>24.04169842255628</v>
+        <v>34.414994128688</v>
       </c>
       <c r="R15">
-        <v>24.04169842255628</v>
+        <v>309.734947158192</v>
       </c>
       <c r="S15">
-        <v>0.01467278499892933</v>
+        <v>0.01735470964739098</v>
       </c>
       <c r="T15">
-        <v>0.01467278499892933</v>
+        <v>0.02174221832270257</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.20291163798468</v>
+        <v>1.622028</v>
       </c>
       <c r="H16">
-        <v>1.20291163798468</v>
+        <v>4.866084</v>
       </c>
       <c r="I16">
-        <v>0.08117366799451757</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J16">
-        <v>0.08117366799451757</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N16">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O16">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P16">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q16">
-        <v>18.96744713467096</v>
+        <v>25.918887429666</v>
       </c>
       <c r="R16">
-        <v>18.96744713467096</v>
+        <v>155.513324577996</v>
       </c>
       <c r="S16">
-        <v>0.01157594063838997</v>
+        <v>0.01307031359770898</v>
       </c>
       <c r="T16">
-        <v>0.01157594063838997</v>
+        <v>0.01091644545146274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H17">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I17">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J17">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N17">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O17">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P17">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q17">
-        <v>53.67417947378809</v>
+        <v>64.91268274030055</v>
       </c>
       <c r="R17">
-        <v>53.67417947378809</v>
+        <v>584.2141446627049</v>
       </c>
       <c r="S17">
-        <v>0.03275765636732002</v>
+        <v>0.03273400998351619</v>
       </c>
       <c r="T17">
-        <v>0.03275765636732002</v>
+        <v>0.04100961676106919</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H18">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I18">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J18">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N18">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O18">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P18">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q18">
-        <v>61.70062577078505</v>
+        <v>80.09156586223767</v>
       </c>
       <c r="R18">
-        <v>61.70062577078505</v>
+        <v>720.8240927601389</v>
       </c>
       <c r="S18">
-        <v>0.03765624209746938</v>
+        <v>0.04038838029570851</v>
       </c>
       <c r="T18">
-        <v>0.03765624209746938</v>
+        <v>0.05059911689283991</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H19">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I19">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J19">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N19">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O19">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P19">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q19">
-        <v>26.2305664440747</v>
+        <v>43.256198119886</v>
       </c>
       <c r="R19">
-        <v>26.2305664440747</v>
+        <v>389.3057830789739</v>
       </c>
       <c r="S19">
-        <v>0.01600866357565413</v>
+        <v>0.02181313052135221</v>
       </c>
       <c r="T19">
-        <v>0.01600866357565413</v>
+        <v>0.02732778915538615</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H20">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I20">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J20">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N20">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O20">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P20">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q20">
-        <v>37.82880935893601</v>
+        <v>47.59223678739422</v>
       </c>
       <c r="R20">
-        <v>37.82880935893601</v>
+        <v>428.330131086548</v>
       </c>
       <c r="S20">
-        <v>0.02308713705386113</v>
+        <v>0.02399969756864213</v>
       </c>
       <c r="T20">
-        <v>0.02308713705386113</v>
+        <v>0.03006715034813025</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.89274127930474</v>
+        <v>2.243090333333333</v>
       </c>
       <c r="H21">
-        <v>1.89274127930474</v>
+        <v>6.729271</v>
       </c>
       <c r="I21">
-        <v>0.1277240549964304</v>
+        <v>0.1370100568335712</v>
       </c>
       <c r="J21">
-        <v>0.1277240549964304</v>
+        <v>0.1640999435464303</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N21">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O21">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P21">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q21">
-        <v>29.84464446197283</v>
+        <v>35.8430346727915</v>
       </c>
       <c r="R21">
-        <v>29.84464446197283</v>
+        <v>215.058208036749</v>
       </c>
       <c r="S21">
-        <v>0.0182143559021257</v>
+        <v>0.01807483846435217</v>
       </c>
       <c r="T21">
-        <v>0.0182143559021257</v>
+        <v>0.01509627038900481</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H22">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I22">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J22">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.3579061019392</v>
+        <v>28.93895166666666</v>
       </c>
       <c r="N22">
-        <v>28.3579061019392</v>
+        <v>86.81685499999999</v>
       </c>
       <c r="O22">
-        <v>0.2564720981355903</v>
+        <v>0.2389168411431201</v>
       </c>
       <c r="P22">
-        <v>0.2564720981355903</v>
+        <v>0.2499063428956389</v>
       </c>
       <c r="Q22">
-        <v>225.0054128376466</v>
+        <v>234.6373384418016</v>
       </c>
       <c r="R22">
-        <v>225.0054128376466</v>
+        <v>1407.82403065081</v>
       </c>
       <c r="S22">
-        <v>0.1373220805009618</v>
+        <v>0.1183223471103151</v>
       </c>
       <c r="T22">
-        <v>0.1373220805009618</v>
+        <v>0.09882390642449485</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H23">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I23">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J23">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.5985523987988</v>
+        <v>35.705903</v>
       </c>
       <c r="N23">
-        <v>32.5985523987988</v>
+        <v>107.117709</v>
       </c>
       <c r="O23">
-        <v>0.294824981077541</v>
+        <v>0.2947840562154431</v>
       </c>
       <c r="P23">
-        <v>0.294824981077541</v>
+        <v>0.3083432925040795</v>
       </c>
       <c r="Q23">
-        <v>258.6527620916199</v>
+        <v>289.503854288933</v>
       </c>
       <c r="R23">
-        <v>258.6527620916199</v>
+        <v>1737.023125733598</v>
       </c>
       <c r="S23">
-        <v>0.1578572487203685</v>
+        <v>0.145990300454442</v>
       </c>
       <c r="T23">
-        <v>0.1578572487203685</v>
+        <v>0.1219324340949954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H24">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I24">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J24">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.8585060361287</v>
+        <v>19.284198</v>
       </c>
       <c r="N24">
-        <v>13.8585060361287</v>
+        <v>57.852594</v>
       </c>
       <c r="O24">
-        <v>0.1253378901578215</v>
+        <v>0.1592082437265831</v>
       </c>
       <c r="P24">
-        <v>0.1253378901578215</v>
+        <v>0.1665313745074753</v>
       </c>
       <c r="Q24">
-        <v>109.9601240219538</v>
+        <v>156.356489510178</v>
       </c>
       <c r="R24">
-        <v>109.9601240219538</v>
+        <v>938.1389370610678</v>
       </c>
       <c r="S24">
-        <v>0.06710928778292953</v>
+        <v>0.0788470707502608</v>
       </c>
       <c r="T24">
-        <v>0.06710928778292953</v>
+        <v>0.06585379458712588</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H25">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I25">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J25">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.9862547367444</v>
+        <v>21.21726266666667</v>
       </c>
       <c r="N25">
-        <v>19.9862547367444</v>
+        <v>63.651788</v>
       </c>
       <c r="O25">
-        <v>0.180757939876763</v>
+        <v>0.1751674156138409</v>
       </c>
       <c r="P25">
-        <v>0.180757939876763</v>
+        <v>0.1832246233504832</v>
       </c>
       <c r="Q25">
-        <v>158.5806611374605</v>
+        <v>172.0297990912227</v>
       </c>
       <c r="R25">
-        <v>158.5806611374605</v>
+        <v>1032.178794547336</v>
       </c>
       <c r="S25">
-        <v>0.09678267753641596</v>
+        <v>0.08675076923632158</v>
       </c>
       <c r="T25">
-        <v>0.09678267753641596</v>
+        <v>0.07245503584602073</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.93448613691051</v>
+        <v>8.108010999999999</v>
       </c>
       <c r="H26">
-        <v>7.93448613691051</v>
+        <v>16.216022</v>
       </c>
       <c r="I26">
-        <v>0.5354269782140713</v>
+        <v>0.4952449000421683</v>
       </c>
       <c r="J26">
-        <v>0.5354269782140713</v>
+        <v>0.3954437701717871</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.7679471506722</v>
+        <v>15.9793095</v>
       </c>
       <c r="N26">
-        <v>15.7679471506722</v>
+        <v>31.958619</v>
       </c>
       <c r="O26">
-        <v>0.1426070907522843</v>
+        <v>0.1319234433010128</v>
       </c>
       <c r="P26">
-        <v>0.1426070907522843</v>
+        <v>0.09199436674232302</v>
       </c>
       <c r="Q26">
-        <v>125.1105580745461</v>
+        <v>129.5604171984045</v>
       </c>
       <c r="R26">
-        <v>125.1105580745461</v>
+        <v>518.2416687936179</v>
       </c>
       <c r="S26">
-        <v>0.07635568367339543</v>
+        <v>0.06533441249082873</v>
       </c>
       <c r="T26">
-        <v>0.07635568367339543</v>
+        <v>0.03637859921915028</v>
       </c>
     </row>
   </sheetData>
